--- a/data/trans_camb/P59A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P59A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,4; 18,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,61; 36,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,09; 6,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,66; 26,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 24,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; 13,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 16,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 26,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 6,07</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-69,41; 539,06</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 1167,9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,45; 478,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,23; 471,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,65; 334,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,92; 278,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 455,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,8; 131,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 10,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 10,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 10,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 12,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 11,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 11,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 9,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 9,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 9,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,17%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,31; 168,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,45; 169,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 168,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 429,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,42; 444,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,1; 386,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,88; 176,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,09; 178,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,23; 181,97</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 8,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 10,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 10,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 8,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 11,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 10,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 7,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,63; 10,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 9,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,24%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; 99,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 109,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,3; 118,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 133,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,97; 173,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,11; 159,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 85,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,35; 121,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,22; 108,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 11,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 9,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 12,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 8,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 7,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 11,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 8,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 6,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 10,45</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; 104,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; 83,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,28; 110,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,61; 101,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,28; 97,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 136,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 83,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,52; 66,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,73; 103,41</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,18; 1,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 5,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 2,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 8,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 5,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 0,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 3,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 4,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,16; 0,35</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,6%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,24; 11,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,24; 41,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,7; 20,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; 76,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,5; 46,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,52; 8,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,19; 25,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 30,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,52; 2,49</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 4,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 5,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 6,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 6,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 5,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 4,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,93; 5,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 4,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,1; 36,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 54,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 44,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,89; 71,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,48; 68,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 58,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 41,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,01; 51,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,67; 40,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P59A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>4,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 18,19</t>
+          <t>-1,53; 10,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 36,78</t>
+          <t>1,64; 14,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 6,57</t>
+          <t>-3,38; 8,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 26,79</t>
+          <t>0,97; 12,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 24,11</t>
+          <t>2,48; 12,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 13,02</t>
+          <t>1,64; 10,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 16,94</t>
+          <t>1,41; 9,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 26,32</t>
+          <t>3,58; 11,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 6,07</t>
+          <t>0,9; 8,45</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205,32%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-40,58%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>108,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>121,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>138,11%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,26%</t>
+          <t>56,77%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 539,06</t>
+          <t>-13,92; 145,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 1167,9</t>
+          <t>10,41; 187,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,27; 116,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 478,21</t>
+          <t>5,15; 317,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 471,69</t>
+          <t>21,36; 316,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,65; 334,51</t>
+          <t>15,12; 280,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 278,4</t>
+          <t>14,15; 146,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 455,98</t>
+          <t>35,25; 176,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 131,03</t>
+          <t>7,88; 138,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,78</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,73</t>
+          <t>-1,72; 8,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 10,89</t>
+          <t>-0,22; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 10,98</t>
+          <t>-1,78; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 12,08</t>
+          <t>-0,71; 8,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 11,46</t>
+          <t>1,86; 11,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,08</t>
+          <t>1,92; 11,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,68</t>
+          <t>0,05; 7,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 9,3</t>
+          <t>2,63; 10,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,49</t>
+          <t>1,89; 9,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>137,58%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>135,87%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>137,7%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>57,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>56,04%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 168,24</t>
+          <t>-11,14; 99,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 169,71</t>
+          <t>-1,85; 109,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 168,69</t>
+          <t>-12,47; 118,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 429,71</t>
+          <t>-7,73; 133,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 444,42</t>
+          <t>13,97; 173,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,1; 386,32</t>
+          <t>12,78; 170,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 176,31</t>
+          <t>0,51; 85,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 178,47</t>
+          <t>22,35; 121,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 181,97</t>
+          <t>16,21; 112,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,78</t>
+          <t>-2,33; 11,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,1</t>
+          <t>-4,21; 9,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 10,64</t>
+          <t>-1,43; 12,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,6</t>
+          <t>-3,02; 8,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 11,53</t>
+          <t>-2,78; 7,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,55</t>
+          <t>0,66; 11,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,13</t>
+          <t>-0,6; 8,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,13</t>
+          <t>-1,43; 6,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,06</t>
+          <t>1,12; 10,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>57,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>57,56%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>47,38%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 99,41</t>
+          <t>-14,24; 104,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 109,97</t>
+          <t>-23,94; 83,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 118,65</t>
+          <t>-10,0; 109,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 133,24</t>
+          <t>-21,61; 101,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 173,7</t>
+          <t>-20,28; 97,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 159,18</t>
+          <t>2,65; 142,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 85,43</t>
+          <t>-4,52; 83,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,35; 121,5</t>
+          <t>-10,52; 66,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 108,16</t>
+          <t>7,8; 104,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>-3,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 11,44</t>
+          <t>-8,18; 1,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,11</t>
+          <t>-4,33; 5,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 12,35</t>
+          <t>-8,21; 2,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,5</t>
+          <t>-1,37; 8,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,64</t>
+          <t>-4,02; 5,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,71</t>
+          <t>-7,5; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,71</t>
+          <t>-3,65; 3,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,88</t>
+          <t>-2,6; 4,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,45</t>
+          <t>-6,51; 0,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>-25,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>-20,76%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 104,22</t>
+          <t>-41,24; 11,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 83,36</t>
+          <t>-21,24; 41,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 110,7</t>
+          <t>-40,63; 18,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 101,55</t>
+          <t>-9,55; 76,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 97,39</t>
+          <t>-25,5; 46,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 136,04</t>
+          <t>-49,78; 7,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 83,79</t>
+          <t>-21,19; 25,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 66,95</t>
+          <t>-15,79; 30,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,73; 103,41</t>
+          <t>-39,78; 1,87</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 1,69</t>
+          <t>-1,2; 4,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,92</t>
+          <t>0,95; 6,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,82</t>
+          <t>-0,44; 5,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,6</t>
+          <t>1,18; 6,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,02</t>
+          <t>1,48; 6,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,87</t>
+          <t>0,28; 5,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,49</t>
+          <t>0,82; 4,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,06</t>
+          <t>1,93; 5,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,35</t>
+          <t>0,71; 4,5</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>39,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,34%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-18,6%</t>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 11,36</t>
+          <t>-8,1; 36,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 41,22</t>
+          <t>6,22; 54,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 20,21</t>
+          <t>-2,94; 43,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 76,5</t>
+          <t>9,89; 71,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 46,81</t>
+          <t>12,48; 68,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 8,77</t>
+          <t>2,39; 57,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 25,25</t>
+          <t>6,21; 41,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 30,11</t>
+          <t>15,01; 51,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 2,49</t>
+          <t>5,57; 41,19</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 4,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 6,57</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 5,46</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 6,53</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 6,26</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,15</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 4,62</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 5,64</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 4,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>27,6%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>39,22%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>37,59%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>27,97%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>24,08%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>31,94%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 36,54</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>6,22; 54,06</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 44,22</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>9,89; 71,14</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 68,26</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 58,54</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 41,56</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>15,01; 51,18</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 40,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P59A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P59A-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 10,46</t>
+          <t>-2,11; 10,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 14,11</t>
+          <t>1,91; 13,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 8,19</t>
+          <t>-2,23; 9,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,03</t>
+          <t>1,43; 11,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,17</t>
+          <t>2,35; 12,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 10,53</t>
+          <t>1,25; 10,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 9,05</t>
+          <t>1,21; 9,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,32</t>
+          <t>3,36; 11,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,45</t>
+          <t>0,71; 7,9</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 145,34</t>
+          <t>-19,7; 147,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 187,3</t>
+          <t>14,82; 204,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 116,11</t>
+          <t>-20,21; 134,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 317,78</t>
+          <t>10,35; 288,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 316,63</t>
+          <t>22,06; 330,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 280,15</t>
+          <t>11,58; 268,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 146,87</t>
+          <t>9,14; 144,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,25; 176,37</t>
+          <t>31,1; 181,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 138,89</t>
+          <t>6,21; 135,73</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,78</t>
+          <t>-1,89; 8,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,1</t>
+          <t>-0,39; 10,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 10,74</t>
+          <t>-1,15; 10,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,6</t>
+          <t>-0,78; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 11,53</t>
+          <t>2,33; 11,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,26</t>
+          <t>2,77; 11,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,13</t>
+          <t>0,16; 7,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,13</t>
+          <t>2,53; 9,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,46</t>
+          <t>1,83; 9,63</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 99,41</t>
+          <t>-15,6; 88,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 109,97</t>
+          <t>-3,37; 105,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 118,44</t>
+          <t>-7,84; 113,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 133,24</t>
+          <t>-7,22; 133,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,97; 173,7</t>
+          <t>19,35; 187,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 170,36</t>
+          <t>23,17; 178,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 85,43</t>
+          <t>1,36; 82,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 121,5</t>
+          <t>19,88; 111,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 112,7</t>
+          <t>13,56; 109,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 11,44</t>
+          <t>-2,56; 11,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,11</t>
+          <t>-3,29; 10,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 12,14</t>
+          <t>-1,85; 12,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,5</t>
+          <t>-2,57; 8,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 7,64</t>
+          <t>-2,87; 7,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 11,95</t>
+          <t>0,9; 11,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,71</t>
+          <t>-0,69; 8,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,88</t>
+          <t>-1,79; 6,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,53</t>
+          <t>1,26; 10,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 104,22</t>
+          <t>-15,18; 105,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 83,36</t>
+          <t>-19,48; 93,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 109,47</t>
+          <t>-9,95; 110,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 101,55</t>
+          <t>-19,19; 101,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 97,39</t>
+          <t>-21,29; 90,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 142,12</t>
+          <t>4,64; 141,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 83,79</t>
+          <t>-4,93; 79,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 66,95</t>
+          <t>-12,31; 65,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 104,46</t>
+          <t>7,76; 97,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 1,69</t>
+          <t>-9,4; 0,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,92</t>
+          <t>-4,69; 6,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 2,8</t>
+          <t>-7,42; 2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,6</t>
+          <t>-1,33; 8,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 5,02</t>
+          <t>-3,6; 4,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 0,93</t>
+          <t>-7,78; 0,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,49</t>
+          <t>-3,22; 3,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,06</t>
+          <t>-2,58; 4,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 0,49</t>
+          <t>-6,73; 0,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 11,36</t>
+          <t>-46,24; 7,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 41,22</t>
+          <t>-22,13; 43,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 18,4</t>
+          <t>-36,97; 20,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 76,5</t>
+          <t>-9,12; 75,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 46,81</t>
+          <t>-24,05; 45,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,78; 7,88</t>
+          <t>-51,8; 6,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 25,25</t>
+          <t>-19,39; 26,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 30,11</t>
+          <t>-15,74; 29,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 1,87</t>
+          <t>-40,14; 3,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,45</t>
+          <t>-1,32; 4,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,57</t>
+          <t>0,94; 6,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,36</t>
+          <t>-0,63; 5,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,53</t>
+          <t>1,52; 6,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,26</t>
+          <t>1,44; 6,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,33</t>
+          <t>0,22; 5,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,62</t>
+          <t>0,96; 4,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,64</t>
+          <t>1,86; 5,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,5</t>
+          <t>0,65; 4,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 36,54</t>
+          <t>-9,03; 35,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,22; 54,06</t>
+          <t>6,01; 54,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 43,25</t>
+          <t>-4,18; 42,66</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>9,89; 71,14</t>
+          <t>12,17; 73,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,48; 68,26</t>
+          <t>12,29; 69,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,39; 57,76</t>
+          <t>2,15; 58,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,21; 41,56</t>
+          <t>7,45; 43,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15,01; 51,18</t>
+          <t>14,71; 50,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,57; 41,19</t>
+          <t>4,71; 41,67</t>
         </is>
       </c>
     </row>
